--- a/Zeitaufstellungen/Zeitaufwand_Waller.xlsx
+++ b/Zeitaufstellungen/Zeitaufwand_Waller.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
   <si>
     <t>Name:</t>
   </si>
@@ -198,12 +198,6 @@
 labor-filter.php</t>
   </si>
   <si>
-    <t>Einlesen in das Plug-In DataTables der Javascript library jQuery
-Erstellen der Datein "TestTable.html", "TestTable.js", "jQuery.js", "dataTables_min.js", "dataTables_min.css" zum Testen des Plug-Ins
-Versuchen, die Testtabelle in existierendes FSST-Projekt zu implementieren
-Verschiedene mögliche Logos designed (Handskizzen)</t>
-  </si>
-  <si>
     <t>Testen des Zugriffs auf Smartphone-Kamera über HTML-Seite
 Erstellen der Datei "camtest.html"</t>
   </si>
@@ -241,6 +235,21 @@
 https://www.video2brain.com/de/tutorial/mapreduce-nosql-datenbanken
 https://www.video2brain.com/de/tutorial/einleitung-13
 https://www.video2brain.com/de/tutorial/einleitung-14</t>
+  </si>
+  <si>
+    <t>Einlesen in das Plug-In DataTables der Javascript library jQuery
+Erstellen der Datein "TestTable.html", "TestTable.js", "jQuery.js", "dataTables_min.js", "dataTables_min.css" zum Testen des Plug-Ins
+Versuchen, die Testtabelle in existierendes FSST-Projekt zu implementieren - erfolglos
+Verschiedene mögliche Logos designed (Handskizzen)</t>
+  </si>
+  <si>
+    <t>Versuchen, die Testtabelle in existierendes FSST-Projekt zu implementieren - erfolglos
+dataTable Plug-In mit sql-Daten getestet - erfolgreich siehe Dokument "TestTable.php"</t>
+  </si>
+  <si>
+    <t>filter.php
+labor-filter.php
+TestTable.php</t>
   </si>
 </sst>
 </file>
@@ -957,6 +966,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="2" fontId="6" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1031,12 +1046,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1399,7 +1408,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.7499999999999991</c:v>
+                  <c:v>6.0833333333333321</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -1566,11 +1575,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="199188352"/>
-        <c:axId val="199186784"/>
+        <c:axId val="203279048"/>
+        <c:axId val="204911176"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="199188352"/>
+        <c:axId val="203279048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1592,7 +1601,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1624,7 +1632,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="199186784"/>
+        <c:crossAx val="204911176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1634,7 +1642,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="199186784"/>
+        <c:axId val="204911176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1671,7 +1679,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1703,7 +1710,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="199188352"/>
+        <c:crossAx val="203279048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1776,7 +1783,7 @@
         <xdr:cNvPr id="2463" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00009F090000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00009F090000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2152,8 +2159,8 @@
   </sheetPr>
   <dimension ref="A1:HZ203"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="97" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="97" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2170,66 +2177,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:234" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="57" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="53" t="s">
-        <v>40</v>
-      </c>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="54"/>
+      <c r="A1" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="55" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="56"/>
     </row>
     <row r="2" spans="1:234" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
       <c r="E2" s="11">
         <f>SUM(E5:E203)</f>
         <v>5.58</v>
       </c>
       <c r="F2" s="11">
         <f>SUM(F5:F203)</f>
-        <v>2.3366666666666664</v>
+        <v>2.67</v>
       </c>
       <c r="G2" s="12">
         <f>SUM(G5:G203)</f>
-        <v>7.9166666666666661</v>
-      </c>
-      <c r="H2" s="55"/>
-      <c r="I2" s="56"/>
+        <v>8.25</v>
+      </c>
+      <c r="H2" s="57"/>
+      <c r="I2" s="58"/>
     </row>
     <row r="3" spans="1:234" s="13" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="60" t="s">
+      <c r="B3" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="61" t="s">
+      <c r="C3" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="61"/>
-      <c r="E3" s="62" t="s">
+      <c r="D3" s="63"/>
+      <c r="E3" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="63" t="s">
+      <c r="F3" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="63" t="s">
+      <c r="G3" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="51" t="s">
+      <c r="H3" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="51" t="s">
+      <c r="I3" s="53" t="s">
         <v>33</v>
       </c>
       <c r="J3" s="10"/>
@@ -2459,19 +2466,19 @@
       <c r="HZ3" s="10"/>
     </row>
     <row r="4" spans="1:234" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="59"/>
-      <c r="B4" s="60"/>
+      <c r="A4" s="61"/>
+      <c r="B4" s="62"/>
       <c r="C4" s="14" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="62"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
     </row>
     <row r="5" spans="1:234" ht="150" x14ac:dyDescent="0.25">
       <c r="A5" s="41">
@@ -2501,8 +2508,8 @@
       <c r="H5" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="I5" s="77" t="s">
-        <v>44</v>
+      <c r="I5" s="52" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:234" ht="75" x14ac:dyDescent="0.25">
@@ -2533,8 +2540,8 @@
       <c r="H6" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="I6" s="76" t="s">
-        <v>45</v>
+      <c r="I6" s="51" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:234" ht="105" x14ac:dyDescent="0.25">
@@ -2566,7 +2573,7 @@
         <v>35</v>
       </c>
       <c r="I7" s="50" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:234" ht="210" x14ac:dyDescent="0.25">
@@ -2583,7 +2590,9 @@
       <c r="D8" s="19">
         <v>0.84375</v>
       </c>
-      <c r="E8" s="21"/>
+      <c r="E8" s="21">
+        <v>0</v>
+      </c>
       <c r="F8" s="21">
         <f t="shared" si="1"/>
         <v>1.75</v>
@@ -2593,7 +2602,7 @@
         <v>1.75</v>
       </c>
       <c r="H8" s="49" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="I8" s="50" t="s">
         <v>36</v>
@@ -2625,10 +2634,10 @@
         <v>0.25</v>
       </c>
       <c r="H9" s="49" t="s">
+        <v>37</v>
+      </c>
+      <c r="I9" s="50" t="s">
         <v>38</v>
-      </c>
-      <c r="I9" s="50" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:234" ht="30" x14ac:dyDescent="0.25">
@@ -2645,7 +2654,9 @@
       <c r="D10" s="19">
         <v>0.5625</v>
       </c>
-      <c r="E10" s="21"/>
+      <c r="E10" s="21">
+        <v>0</v>
+      </c>
       <c r="F10" s="21">
         <f t="shared" si="1"/>
         <v>0.33333333333333331</v>
@@ -2655,31 +2666,43 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="H10" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="I10" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="I10" s="50" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:234" x14ac:dyDescent="0.25">
-      <c r="A11" s="22"/>
-      <c r="B11" s="17" t="e">
+    </row>
+    <row r="11" spans="1:234" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="22">
+        <v>42861</v>
+      </c>
+      <c r="B11" s="17">
         <f t="shared" si="0"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="21"/>
+        <v>18</v>
+      </c>
+      <c r="C11" s="18">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D11" s="19">
+        <v>0.80555555555555547</v>
+      </c>
+      <c r="E11" s="21">
+        <v>0</v>
+      </c>
       <c r="F11" s="21">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="G11" s="20">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H11" s="43"/>
-      <c r="I11" s="46"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H11" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" s="50" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="12" spans="1:234" x14ac:dyDescent="0.25">
       <c r="A12" s="22"/>
@@ -6565,16 +6588,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="7" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
@@ -6583,30 +6606,30 @@
       <c r="B2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="71" t="s">
+      <c r="C2" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71" t="s">
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
     </row>
     <row r="3" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="36" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="8"/>
-      <c r="C3" s="73" t="s">
+      <c r="C3" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
@@ -6715,36 +6738,36 @@
     </row>
     <row r="13" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="64" t="s">
+      <c r="A14" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="64"/>
-      <c r="C14" s="64"/>
-      <c r="D14" s="64"/>
-      <c r="E14" s="64"/>
-      <c r="F14" s="64"/>
-      <c r="G14" s="64"/>
-      <c r="H14" s="64"/>
+      <c r="B14" s="66"/>
+      <c r="C14" s="66"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="66"/>
+      <c r="F14" s="66"/>
+      <c r="G14" s="66"/>
+      <c r="H14" s="66"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="65"/>
-      <c r="B15" s="66"/>
-      <c r="C15" s="66"/>
-      <c r="D15" s="66"/>
-      <c r="E15" s="66"/>
-      <c r="F15" s="66"/>
-      <c r="G15" s="66"/>
-      <c r="H15" s="67"/>
+      <c r="A15" s="67"/>
+      <c r="B15" s="68"/>
+      <c r="C15" s="68"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="68"/>
+      <c r="F15" s="68"/>
+      <c r="G15" s="68"/>
+      <c r="H15" s="69"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="68"/>
-      <c r="B16" s="69"/>
-      <c r="C16" s="69"/>
-      <c r="D16" s="69"/>
-      <c r="E16" s="69"/>
-      <c r="F16" s="69"/>
-      <c r="G16" s="69"/>
-      <c r="H16" s="70"/>
+      <c r="A16" s="70"/>
+      <c r="B16" s="71"/>
+      <c r="C16" s="71"/>
+      <c r="D16" s="71"/>
+      <c r="E16" s="71"/>
+      <c r="F16" s="71"/>
+      <c r="G16" s="71"/>
+      <c r="H16" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -6776,13 +6799,13 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="8" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C8" s="75" t="s">
+      <c r="C8" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="75"/>
+      <c r="D8" s="77"/>
       <c r="E8" s="1">
         <f>SUM(D11:D62)</f>
-        <v>7.9166666666666652</v>
+        <v>8.2499999999999982</v>
       </c>
     </row>
     <row r="10" spans="3:5" x14ac:dyDescent="0.25">
@@ -6817,7 +6840,7 @@
       </c>
       <c r="D13" s="3">
         <f>SUMIF(Begleitprotokoll!$B$5:$B$56,Wochenstunden!$C13,Begleitprotokoll!$G$5:$G$56)</f>
-        <v>5.7499999999999991</v>
+        <v>6.0833333333333321</v>
       </c>
     </row>
     <row r="14" spans="3:5" x14ac:dyDescent="0.25">
